--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ccl5</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.98207387809732</v>
+        <v>1.708386</v>
       </c>
       <c r="H2">
-        <v>2.98207387809732</v>
+        <v>5.125158</v>
       </c>
       <c r="I2">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="J2">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.250829379954551</v>
+        <v>0.438062</v>
       </c>
       <c r="N2">
-        <v>0.250829379954551</v>
+        <v>1.314186</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6074000808827777</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6074000808827777</v>
       </c>
       <c r="Q2">
-        <v>0.747991741821814</v>
+        <v>0.748378987932</v>
       </c>
       <c r="R2">
-        <v>0.747991741821814</v>
+        <v>6.735410891388001</v>
       </c>
       <c r="S2">
-        <v>0.2747529420981389</v>
+        <v>0.05689902383910184</v>
       </c>
       <c r="T2">
-        <v>0.2747529420981389</v>
+        <v>0.05689902383910184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>1.708386</v>
+      </c>
+      <c r="H3">
+        <v>5.125158</v>
+      </c>
+      <c r="I3">
+        <v>0.09367635209466295</v>
+      </c>
+      <c r="J3">
+        <v>0.09367635209466295</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.2831463333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.8494390000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="P3">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="Q3">
+        <v>0.483723231818</v>
+      </c>
+      <c r="R3">
+        <v>4.353509086362</v>
+      </c>
+      <c r="S3">
+        <v>0.03677732825556111</v>
+      </c>
+      <c r="T3">
+        <v>0.03677732825556111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.842846333333334</v>
+      </c>
+      <c r="H4">
+        <v>11.528539</v>
+      </c>
+      <c r="I4">
+        <v>0.210715743495333</v>
+      </c>
+      <c r="J4">
+        <v>0.2107157434953329</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.438062</v>
+      </c>
+      <c r="N4">
+        <v>1.314186</v>
+      </c>
+      <c r="O4">
+        <v>0.6074000808827777</v>
+      </c>
+      <c r="P4">
+        <v>0.6074000808827777</v>
+      </c>
+      <c r="Q4">
+        <v>1.683404950472667</v>
+      </c>
+      <c r="R4">
+        <v>15.150644554254</v>
+      </c>
+      <c r="S4">
+        <v>0.1279887596423399</v>
+      </c>
+      <c r="T4">
+        <v>0.1279887596423399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.842846333333334</v>
+      </c>
+      <c r="H5">
+        <v>11.528539</v>
+      </c>
+      <c r="I5">
+        <v>0.210715743495333</v>
+      </c>
+      <c r="J5">
+        <v>0.2107157434953329</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2831463333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.8494390000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="P5">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="Q5">
+        <v>1.088087848846778</v>
+      </c>
+      <c r="R5">
+        <v>9.792790639621002</v>
+      </c>
+      <c r="S5">
+        <v>0.08272698385299307</v>
+      </c>
+      <c r="T5">
+        <v>0.08272698385299306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.228676</v>
+      </c>
+      <c r="H6">
+        <v>36.686028</v>
+      </c>
+      <c r="I6">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="J6">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.438062</v>
+      </c>
+      <c r="N6">
+        <v>1.314186</v>
+      </c>
+      <c r="O6">
+        <v>0.6074000808827777</v>
+      </c>
+      <c r="P6">
+        <v>0.6074000808827777</v>
+      </c>
+      <c r="Q6">
+        <v>5.356918265912</v>
+      </c>
+      <c r="R6">
+        <v>48.212264393208</v>
+      </c>
+      <c r="S6">
+        <v>0.4072848450201843</v>
+      </c>
+      <c r="T6">
+        <v>0.4072848450201843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.228676</v>
+      </c>
+      <c r="H7">
+        <v>36.686028</v>
+      </c>
+      <c r="I7">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="J7">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2831463333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.8494390000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="P7">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="Q7">
+        <v>3.462504770921333</v>
+      </c>
+      <c r="R7">
+        <v>31.162542938292</v>
+      </c>
+      <c r="S7">
+        <v>0.2632531707605318</v>
+      </c>
+      <c r="T7">
+        <v>0.2632531707605318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>7.87158197477487</v>
-      </c>
-      <c r="H3">
-        <v>7.87158197477487</v>
-      </c>
-      <c r="I3">
-        <v>0.7252470579018609</v>
-      </c>
-      <c r="J3">
-        <v>0.7252470579018609</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.250829379954551</v>
-      </c>
-      <c r="N3">
-        <v>0.250829379954551</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1.974424025994201</v>
-      </c>
-      <c r="R3">
-        <v>1.974424025994201</v>
-      </c>
-      <c r="S3">
-        <v>0.7252470579018609</v>
-      </c>
-      <c r="T3">
-        <v>0.7252470579018609</v>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4572023333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.371607</v>
+      </c>
+      <c r="I8">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="J8">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.438062</v>
+      </c>
+      <c r="N8">
+        <v>1.314186</v>
+      </c>
+      <c r="O8">
+        <v>0.6074000808827777</v>
+      </c>
+      <c r="P8">
+        <v>0.6074000808827777</v>
+      </c>
+      <c r="Q8">
+        <v>0.2002829685446667</v>
+      </c>
+      <c r="R8">
+        <v>1.802546716902</v>
+      </c>
+      <c r="S8">
+        <v>0.01522745238115175</v>
+      </c>
+      <c r="T8">
+        <v>0.01522745238115175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4572023333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.371607</v>
+      </c>
+      <c r="I9">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="J9">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2831463333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.8494390000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="P9">
+        <v>0.3925999191172223</v>
+      </c>
+      <c r="Q9">
+        <v>0.1294551642747778</v>
+      </c>
+      <c r="R9">
+        <v>1.165096478473</v>
+      </c>
+      <c r="S9">
+        <v>0.009842436248136233</v>
+      </c>
+      <c r="T9">
+        <v>0.009842436248136233</v>
       </c>
     </row>
   </sheetData>
